--- a/src/test/resources/v2excelsheet_newrecord.xlsx
+++ b/src/test/resources/v2excelsheet_newrecord.xlsx
@@ -65,6 +65,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'How to Use'!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
@@ -114,6 +116,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Participants Details'!$A:$A,'Participants Details'!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -164,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="101">
   <si>
     <t xml:space="preserve">HFN-Form-003-Participant-Details-Sheet-India - How To Use</t>
   </si>
@@ -469,10 +473,7 @@
     <t xml:space="preserve">Ruby</t>
   </si>
   <si>
-    <t xml:space="preserve">Theo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theo@test.com</t>
+    <t xml:space="preserve">samuel@test.com</t>
   </si>
   <si>
     <t xml:space="preserve">Maharashtra</t>
@@ -985,9 +986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1242360</xdr:colOff>
+      <xdr:colOff>1241640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1316160</xdr:rowOff>
+      <xdr:rowOff>1315440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1000,8 +1001,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943360" y="47520"/>
-          <a:ext cx="2147040" cy="1268640"/>
+          <a:off x="2905200" y="47520"/>
+          <a:ext cx="2089080" cy="1267920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,13 +1025,13 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="7:7 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,16 +1216,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="7:7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1443,29 +1444,29 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="10.8010204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="20.25"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="23" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="23" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="7.4234693877551"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="22" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="21" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="21" width="25.1071428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="21" width="6.0765306122449"/>
   </cols>
   <sheetData>
@@ -1778,8 +1779,8 @@
       <c r="S6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>99</v>
+      <c r="A7" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>83</v>
@@ -1800,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" s="31" t="n">
         <v>4567890123</v>
@@ -6293,7 +6294,7 @@
     <hyperlink ref="H4" r:id="rId2" display="mike@test.com"/>
     <hyperlink ref="H5" r:id="rId3" display="smith@test.com"/>
     <hyperlink ref="H6" r:id="rId4" display="adam@test.com"/>
-    <hyperlink ref="H7" r:id="rId5" display="theo@test.com"/>
+    <hyperlink ref="H7" r:id="rId5" display="samuel@test.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.748611111111111" bottom="0.748611111111111" header="0.315277777777778" footer="0.315277777777778"/>
@@ -6314,16 +6315,16 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="7:7 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="13.0918367346939"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="42" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6436,7 +6437,7 @@
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48"/>
       <c r="C22" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="46"/>
     </row>
